--- a/predictions полгода до/Прогнозы_ETS_EA4.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_EA4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21901974.807733</v>
+        <v>20453091.18999913</v>
       </c>
       <c r="C2" t="n">
-        <v>21206619.30452948</v>
+        <v>17273058.04479402</v>
       </c>
       <c r="D2" t="n">
-        <v>18257340.92316552</v>
+        <v>18693237.55744747</v>
       </c>
       <c r="E2" t="n">
-        <v>19956290.90327127</v>
+        <v>18757052.61056193</v>
       </c>
       <c r="F2" t="n">
-        <v>21120456.14389008</v>
+        <v>18521492.54677594</v>
       </c>
       <c r="G2" t="n">
-        <v>20425100.64068657</v>
+        <v>15341459.40157082</v>
       </c>
       <c r="H2" t="n">
-        <v>17475822.25932261</v>
+        <v>16761638.91422428</v>
       </c>
       <c r="I2" t="n">
-        <v>19174772.23942835</v>
+        <v>16825453.96733873</v>
       </c>
       <c r="J2" t="n">
-        <v>20338937.48004716</v>
+        <v>16589893.90355274</v>
       </c>
       <c r="K2" t="n">
-        <v>19643581.97684365</v>
+        <v>13409860.75834763</v>
       </c>
       <c r="L2" t="n">
-        <v>16694303.59547969</v>
+        <v>14830040.27100109</v>
       </c>
       <c r="M2" t="n">
-        <v>18393253.57558543</v>
+        <v>14893855.32411554</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14038887.67705238</v>
+        <v>9441936.431297269</v>
       </c>
       <c r="C3" t="n">
-        <v>13223484.77168266</v>
+        <v>9996432.095931521</v>
       </c>
       <c r="D3" t="n">
-        <v>14050241.41461464</v>
+        <v>10550695.47117719</v>
       </c>
       <c r="E3" t="n">
-        <v>14104817.55260289</v>
+        <v>11106080.88232972</v>
       </c>
       <c r="F3" t="n">
-        <v>17890229.28960732</v>
+        <v>11660149.88852552</v>
       </c>
       <c r="G3" t="n">
-        <v>17074826.3842376</v>
+        <v>12214645.55315977</v>
       </c>
       <c r="H3" t="n">
-        <v>17901583.02716959</v>
+        <v>12768908.92840544</v>
       </c>
       <c r="I3" t="n">
-        <v>17956159.16515784</v>
+        <v>13324294.33955797</v>
       </c>
       <c r="J3" t="n">
-        <v>21741570.90216228</v>
+        <v>13878363.34575377</v>
       </c>
       <c r="K3" t="n">
-        <v>20926167.99679255</v>
+        <v>14432859.01038802</v>
       </c>
       <c r="L3" t="n">
-        <v>21752924.63972454</v>
+        <v>14987122.38563369</v>
       </c>
       <c r="M3" t="n">
-        <v>21807500.77771279</v>
+        <v>15542507.79678622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5107903.19733937</v>
+        <v>11601518.46058979</v>
       </c>
       <c r="C4" t="n">
-        <v>5108765.776057876</v>
+        <v>11602748.30464973</v>
       </c>
       <c r="D4" t="n">
-        <v>5109226.392143343</v>
+        <v>11604254.59832218</v>
       </c>
       <c r="E4" t="n">
-        <v>5109932.434830912</v>
+        <v>11605237.15943292</v>
       </c>
       <c r="F4" t="n">
-        <v>5109945.526852063</v>
+        <v>11606397.86217526</v>
       </c>
       <c r="G4" t="n">
-        <v>5110808.105570569</v>
+        <v>11607627.7062352</v>
       </c>
       <c r="H4" t="n">
-        <v>5111268.721656036</v>
+        <v>11609133.99990764</v>
       </c>
       <c r="I4" t="n">
-        <v>5111974.764343605</v>
+        <v>11610116.56101839</v>
       </c>
       <c r="J4" t="n">
-        <v>5111987.856364756</v>
+        <v>11611277.26376073</v>
       </c>
       <c r="K4" t="n">
-        <v>5112850.435083262</v>
+        <v>11612507.10782067</v>
       </c>
       <c r="L4" t="n">
-        <v>5113311.051168729</v>
+        <v>11614013.40149311</v>
       </c>
       <c r="M4" t="n">
-        <v>5114017.093856298</v>
+        <v>11614995.96260385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3973671.611259877</v>
+        <v>24735737.87090822</v>
       </c>
       <c r="C5" t="n">
-        <v>5585083.277418388</v>
+        <v>20923136.09882517</v>
       </c>
       <c r="D5" t="n">
-        <v>7196538.480939596</v>
+        <v>24045826.84297136</v>
       </c>
       <c r="E5" t="n">
-        <v>8807978.337499589</v>
+        <v>24517940.20820954</v>
       </c>
       <c r="F5" t="n">
-        <v>10419288.94875947</v>
+        <v>28770346.82932218</v>
       </c>
       <c r="G5" t="n">
-        <v>12030700.61491798</v>
+        <v>24957745.05723913</v>
       </c>
       <c r="H5" t="n">
-        <v>13642155.81843919</v>
+        <v>28080435.80138532</v>
       </c>
       <c r="I5" t="n">
-        <v>15253595.67499918</v>
+        <v>28552549.1666235</v>
       </c>
       <c r="J5" t="n">
-        <v>16864906.28625906</v>
+        <v>32804955.78773614</v>
       </c>
       <c r="K5" t="n">
-        <v>18476317.95241757</v>
+        <v>28992354.01565309</v>
       </c>
       <c r="L5" t="n">
-        <v>20087773.15593877</v>
+        <v>32115044.75979928</v>
       </c>
       <c r="M5" t="n">
-        <v>21699213.01249877</v>
+        <v>32587158.12503746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8676029.048313485</v>
+        <v>1836750.59989222</v>
       </c>
       <c r="C6" t="n">
-        <v>11340883.9683629</v>
+        <v>3974268.046731623</v>
       </c>
       <c r="D6" t="n">
-        <v>10404647.40204715</v>
+        <v>1348277.063670805</v>
       </c>
       <c r="E6" t="n">
-        <v>10654038.17190962</v>
+        <v>2843828.592561817</v>
       </c>
       <c r="F6" t="n">
-        <v>9984231.327752935</v>
+        <v>1734751.565750922</v>
       </c>
       <c r="G6" t="n">
-        <v>12649086.24780235</v>
+        <v>3872269.012590325</v>
       </c>
       <c r="H6" t="n">
-        <v>11712849.6814866</v>
+        <v>1246278.029529507</v>
       </c>
       <c r="I6" t="n">
-        <v>11962240.45134907</v>
+        <v>2741829.558420518</v>
       </c>
       <c r="J6" t="n">
-        <v>11292433.60719238</v>
+        <v>1632752.531609623</v>
       </c>
       <c r="K6" t="n">
-        <v>13957288.5272418</v>
+        <v>3770269.978449027</v>
       </c>
       <c r="L6" t="n">
-        <v>13021051.96092604</v>
+        <v>1144278.995388208</v>
       </c>
       <c r="M6" t="n">
-        <v>13270442.73078852</v>
+        <v>2639830.52427922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2572496.495464082</v>
+        <v>8517592.592968768</v>
       </c>
       <c r="C7" t="n">
-        <v>3541823.805529056</v>
+        <v>8645813.169805963</v>
       </c>
       <c r="D7" t="n">
-        <v>1895277.754426686</v>
+        <v>8774560.572851727</v>
       </c>
       <c r="E7" t="n">
-        <v>3589191.077091899</v>
+        <v>8902716.314202949</v>
       </c>
       <c r="F7" t="n">
-        <v>2929360.108360928</v>
+        <v>9030558.753103441</v>
       </c>
       <c r="G7" t="n">
-        <v>3898687.418425903</v>
+        <v>9158779.329940636</v>
       </c>
       <c r="H7" t="n">
-        <v>2252141.367323533</v>
+        <v>9287526.7329864</v>
       </c>
       <c r="I7" t="n">
-        <v>3946054.689988746</v>
+        <v>9415682.474337623</v>
       </c>
       <c r="J7" t="n">
-        <v>3286223.721257775</v>
+        <v>9543524.913238114</v>
       </c>
       <c r="K7" t="n">
-        <v>4255551.031322749</v>
+        <v>9671745.490075309</v>
       </c>
       <c r="L7" t="n">
-        <v>2609004.980220379</v>
+        <v>9800492.893121073</v>
       </c>
       <c r="M7" t="n">
-        <v>4302918.302885592</v>
+        <v>9928648.634472296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1724211.91724071</v>
+        <v>19048946.99010343</v>
       </c>
       <c r="C8" t="n">
-        <v>1335783.590084898</v>
+        <v>15990716.0009885</v>
       </c>
       <c r="D8" t="n">
-        <v>1162640.582754858</v>
+        <v>17917100.0501623</v>
       </c>
       <c r="E8" t="n">
-        <v>1340862.629838889</v>
+        <v>18128166.21488313</v>
       </c>
       <c r="F8" t="n">
-        <v>1803761.603413798</v>
+        <v>19120037.43753226</v>
       </c>
       <c r="G8" t="n">
-        <v>1415333.276257986</v>
+        <v>16061806.44841732</v>
       </c>
       <c r="H8" t="n">
-        <v>1242190.268927947</v>
+        <v>17988190.49759113</v>
       </c>
       <c r="I8" t="n">
-        <v>1420412.316011978</v>
+        <v>18199256.66231195</v>
       </c>
       <c r="J8" t="n">
-        <v>1883311.289586887</v>
+        <v>19191127.88496108</v>
       </c>
       <c r="K8" t="n">
-        <v>1494882.962431075</v>
+        <v>16132896.89584615</v>
       </c>
       <c r="L8" t="n">
-        <v>1321739.955101036</v>
+        <v>18059280.94501995</v>
       </c>
       <c r="M8" t="n">
-        <v>1499962.002185067</v>
+        <v>18270347.10974077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635690.013332908</v>
+        <v>27827679.0441087</v>
       </c>
       <c r="C9" t="n">
-        <v>2635956.535627346</v>
+        <v>27245579.65359338</v>
       </c>
       <c r="D9" t="n">
-        <v>2636395.855813862</v>
+        <v>28190997.4332948</v>
       </c>
       <c r="E9" t="n">
-        <v>2636504.080386102</v>
+        <v>26842977.49120921</v>
       </c>
       <c r="F9" t="n">
-        <v>2637033.33459909</v>
+        <v>30055150.99238343</v>
       </c>
       <c r="G9" t="n">
-        <v>2637299.856893527</v>
+        <v>29473051.60186811</v>
       </c>
       <c r="H9" t="n">
-        <v>2637739.177080044</v>
+        <v>30418469.38156953</v>
       </c>
       <c r="I9" t="n">
-        <v>2637847.401652284</v>
+        <v>29070449.43948394</v>
       </c>
       <c r="J9" t="n">
-        <v>2638376.655865272</v>
+        <v>32282622.94065816</v>
       </c>
       <c r="K9" t="n">
-        <v>2638643.178159709</v>
+        <v>31700523.55014284</v>
       </c>
       <c r="L9" t="n">
-        <v>2639082.498346226</v>
+        <v>32645941.32984426</v>
       </c>
       <c r="M9" t="n">
-        <v>2639190.722918466</v>
+        <v>31297921.38775867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5088303.61689327</v>
+        <v>27358017.44259613</v>
       </c>
       <c r="C10" t="n">
-        <v>6381658.606235705</v>
+        <v>32851460.03936449</v>
       </c>
       <c r="D10" t="n">
-        <v>5004154.629764622</v>
+        <v>38345611.00258439</v>
       </c>
       <c r="E10" t="n">
-        <v>5182321.863737663</v>
+        <v>43841134.11654989</v>
       </c>
       <c r="F10" t="n">
-        <v>5742163.399420594</v>
+        <v>49334873.2020763</v>
       </c>
       <c r="G10" t="n">
-        <v>7035518.388763029</v>
+        <v>54828315.79884467</v>
       </c>
       <c r="H10" t="n">
-        <v>5658014.412291946</v>
+        <v>60322466.76206457</v>
       </c>
       <c r="I10" t="n">
-        <v>5836181.646264987</v>
+        <v>65817989.87603007</v>
       </c>
       <c r="J10" t="n">
-        <v>6396023.181947918</v>
+        <v>71311728.96155648</v>
       </c>
       <c r="K10" t="n">
-        <v>7689378.171290353</v>
+        <v>76805171.55832484</v>
       </c>
       <c r="L10" t="n">
-        <v>6311874.19481927</v>
+        <v>82299322.52154474</v>
       </c>
       <c r="M10" t="n">
-        <v>6490041.428792311</v>
+        <v>87794845.63551025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3851701.66885471</v>
+        <v>15734037.2343854</v>
       </c>
       <c r="C11" t="n">
-        <v>2457755.311886231</v>
+        <v>16618681.08223835</v>
       </c>
       <c r="D11" t="n">
-        <v>4787142.966596469</v>
+        <v>18457385.33682504</v>
       </c>
       <c r="E11" t="n">
-        <v>2094330.821146879</v>
+        <v>18099059.96757813</v>
       </c>
       <c r="F11" t="n">
-        <v>3856295.023089977</v>
+        <v>18494279.20196353</v>
       </c>
       <c r="G11" t="n">
-        <v>2462348.666121499</v>
+        <v>19378923.04981647</v>
       </c>
       <c r="H11" t="n">
-        <v>4791736.320831737</v>
+        <v>21217627.30440316</v>
       </c>
       <c r="I11" t="n">
-        <v>2098924.175382146</v>
+        <v>20859301.93515626</v>
       </c>
       <c r="J11" t="n">
-        <v>3860888.377325244</v>
+        <v>21254521.16954166</v>
       </c>
       <c r="K11" t="n">
-        <v>2466942.020356766</v>
+        <v>22139165.0173946</v>
       </c>
       <c r="L11" t="n">
-        <v>4796329.675067004</v>
+        <v>23977869.27198129</v>
       </c>
       <c r="M11" t="n">
-        <v>2103517.529617413</v>
+        <v>23619543.90273438</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>752448.8282142488</v>
+        <v>39451924.1460561</v>
       </c>
       <c r="C12" t="n">
-        <v>438457.9514491644</v>
+        <v>39889998.6360672</v>
       </c>
       <c r="D12" t="n">
-        <v>284441.0156974718</v>
+        <v>44471217.2669319</v>
       </c>
       <c r="E12" t="n">
-        <v>373030.5412907694</v>
+        <v>45086996.83673748</v>
       </c>
       <c r="F12" t="n">
-        <v>768454.9736864279</v>
+        <v>41763883.55295949</v>
       </c>
       <c r="G12" t="n">
-        <v>454464.0969213436</v>
+        <v>42201958.04297058</v>
       </c>
       <c r="H12" t="n">
-        <v>300447.161169651</v>
+        <v>46783176.67383529</v>
       </c>
       <c r="I12" t="n">
-        <v>389036.6867629485</v>
+        <v>47398956.24364087</v>
       </c>
       <c r="J12" t="n">
-        <v>784461.1191586071</v>
+        <v>44075842.95986287</v>
       </c>
       <c r="K12" t="n">
-        <v>470470.2423935228</v>
+        <v>44513917.44987397</v>
       </c>
       <c r="L12" t="n">
-        <v>316453.3066418301</v>
+        <v>49095136.08073867</v>
       </c>
       <c r="M12" t="n">
-        <v>405042.8322351277</v>
+        <v>49710915.65054426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1487340.368034904</v>
+        <v>40612901.94384171</v>
       </c>
       <c r="C13" t="n">
-        <v>1656287.161326501</v>
+        <v>37516879.90408421</v>
       </c>
       <c r="D13" t="n">
-        <v>1825347.252426231</v>
+        <v>41823088.09744018</v>
       </c>
       <c r="E13" t="n">
-        <v>1994293.023785481</v>
+        <v>39707552.18765359</v>
       </c>
       <c r="F13" t="n">
-        <v>2163394.824581245</v>
+        <v>41132823.76845239</v>
       </c>
       <c r="G13" t="n">
-        <v>2332341.617872843</v>
+        <v>38036801.72869489</v>
       </c>
       <c r="H13" t="n">
-        <v>2501401.708972573</v>
+        <v>42343009.92205086</v>
       </c>
       <c r="I13" t="n">
-        <v>2670347.480331822</v>
+        <v>40227474.01226427</v>
       </c>
       <c r="J13" t="n">
-        <v>2839449.281127587</v>
+        <v>41652745.59306307</v>
       </c>
       <c r="K13" t="n">
-        <v>3008396.074419185</v>
+        <v>38556723.55330557</v>
       </c>
       <c r="L13" t="n">
-        <v>3177456.165518915</v>
+        <v>42862931.74666154</v>
       </c>
       <c r="M13" t="n">
-        <v>3346401.936878164</v>
+        <v>40747395.83687495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7940.711974465631</v>
+        <v>3181198.466656359</v>
       </c>
       <c r="C14" t="n">
-        <v>-16909.8922024833</v>
+        <v>4322593.544311939</v>
       </c>
       <c r="D14" t="n">
-        <v>-47060.50500080997</v>
+        <v>5464082.142464166</v>
       </c>
       <c r="E14" t="n">
-        <v>29410.99962685298</v>
+        <v>6605412.493282006</v>
       </c>
       <c r="F14" t="n">
-        <v>7931.93302134291</v>
+        <v>7746740.37143234</v>
       </c>
       <c r="G14" t="n">
-        <v>-16918.67115560602</v>
+        <v>8888135.449087918</v>
       </c>
       <c r="H14" t="n">
-        <v>-47069.28395393269</v>
+        <v>10029624.04724014</v>
       </c>
       <c r="I14" t="n">
-        <v>29402.22067373026</v>
+        <v>11170954.39805798</v>
       </c>
       <c r="J14" t="n">
-        <v>7923.154068220189</v>
+        <v>12312282.27620832</v>
       </c>
       <c r="K14" t="n">
-        <v>-16927.45010872874</v>
+        <v>13453677.35386389</v>
       </c>
       <c r="L14" t="n">
-        <v>-47078.06290705541</v>
+        <v>14595165.95201612</v>
       </c>
       <c r="M14" t="n">
-        <v>29393.44172060754</v>
+        <v>15736496.30283396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>917053.2020577779</v>
+        <v>4013281.80049413</v>
       </c>
       <c r="C15" t="n">
-        <v>988602.482979748</v>
+        <v>3894746.800049995</v>
       </c>
       <c r="D15" t="n">
-        <v>1060027.3176672</v>
+        <v>4009236.422585771</v>
       </c>
       <c r="E15" t="n">
-        <v>1131527.873310562</v>
+        <v>4190633.505935941</v>
       </c>
       <c r="F15" t="n">
-        <v>1203051.943368548</v>
+        <v>4392143.659947249</v>
       </c>
       <c r="G15" t="n">
-        <v>1274601.224290518</v>
+        <v>4273608.659503113</v>
       </c>
       <c r="H15" t="n">
-        <v>1346026.058977969</v>
+        <v>4388098.28203889</v>
       </c>
       <c r="I15" t="n">
-        <v>1417526.614621331</v>
+        <v>4569495.36538906</v>
       </c>
       <c r="J15" t="n">
-        <v>1489050.684679317</v>
+        <v>4771005.519400368</v>
       </c>
       <c r="K15" t="n">
-        <v>1560599.965601287</v>
+        <v>4652470.518956233</v>
       </c>
       <c r="L15" t="n">
-        <v>1632024.800288739</v>
+        <v>4766960.141492009</v>
       </c>
       <c r="M15" t="n">
-        <v>1703525.355932101</v>
+        <v>4948357.22484218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290886.863628176</v>
+        <v>11316190.62632889</v>
       </c>
       <c r="C16" t="n">
-        <v>1444202.132732913</v>
+        <v>11701167.08162985</v>
       </c>
       <c r="D16" t="n">
-        <v>1597387.048518954</v>
+        <v>12093107.67460543</v>
       </c>
       <c r="E16" t="n">
-        <v>1750663.601342988</v>
+        <v>12193331.35644228</v>
       </c>
       <c r="F16" t="n">
-        <v>1903917.042738987</v>
+        <v>12436167.50222189</v>
       </c>
       <c r="G16" t="n">
-        <v>2057232.311843724</v>
+        <v>12821143.95752285</v>
       </c>
       <c r="H16" t="n">
-        <v>2210417.227629765</v>
+        <v>13213084.55049843</v>
       </c>
       <c r="I16" t="n">
-        <v>2363693.780453799</v>
+        <v>13313308.23233528</v>
       </c>
       <c r="J16" t="n">
-        <v>2516947.221849798</v>
+        <v>13556144.3781149</v>
       </c>
       <c r="K16" t="n">
-        <v>2670262.490954534</v>
+        <v>13941120.83341585</v>
       </c>
       <c r="L16" t="n">
-        <v>2823447.406740576</v>
+        <v>14333061.42639144</v>
       </c>
       <c r="M16" t="n">
-        <v>2976723.959564609</v>
+        <v>14433285.10822828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7265764.612371518</v>
+        <v>4873623.865225841</v>
       </c>
       <c r="C17" t="n">
-        <v>8072629.586389715</v>
+        <v>4968854.930676547</v>
       </c>
       <c r="D17" t="n">
-        <v>8880104.208254673</v>
+        <v>5064717.778303728</v>
       </c>
       <c r="E17" t="n">
-        <v>9686782.259520382</v>
+        <v>5159810.964987974</v>
       </c>
       <c r="F17" t="n">
-        <v>10494188.90660793</v>
+        <v>5254967.793228556</v>
       </c>
       <c r="G17" t="n">
-        <v>11301053.88062612</v>
+        <v>5350198.858679262</v>
       </c>
       <c r="H17" t="n">
-        <v>12108528.50249108</v>
+        <v>5446061.706306443</v>
       </c>
       <c r="I17" t="n">
-        <v>12915206.55375679</v>
+        <v>5541154.892990689</v>
       </c>
       <c r="J17" t="n">
-        <v>13722613.20084433</v>
+        <v>5636311.721231272</v>
       </c>
       <c r="K17" t="n">
-        <v>14529478.17486253</v>
+        <v>5731542.786681977</v>
       </c>
       <c r="L17" t="n">
-        <v>15336952.79672749</v>
+        <v>5827405.634309158</v>
       </c>
       <c r="M17" t="n">
-        <v>16143630.8479932</v>
+        <v>5922498.820993404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1344254.108135776</v>
+        <v>3324546.380765086</v>
       </c>
       <c r="C18" t="n">
-        <v>1835030.827709919</v>
+        <v>3575328.278721292</v>
       </c>
       <c r="D18" t="n">
-        <v>1420448.897939254</v>
+        <v>3289288.83802681</v>
       </c>
       <c r="E18" t="n">
-        <v>1440808.021975747</v>
+        <v>3378116.818914447</v>
       </c>
       <c r="F18" t="n">
-        <v>1426479.036824611</v>
+        <v>3467752.197723044</v>
       </c>
       <c r="G18" t="n">
-        <v>1917255.756398753</v>
+        <v>3718534.09567925</v>
       </c>
       <c r="H18" t="n">
-        <v>1502673.826628089</v>
+        <v>3432494.654984768</v>
       </c>
       <c r="I18" t="n">
-        <v>1523032.950664581</v>
+        <v>3521322.635872405</v>
       </c>
       <c r="J18" t="n">
-        <v>1508703.965513445</v>
+        <v>3610958.014681002</v>
       </c>
       <c r="K18" t="n">
-        <v>1999480.685087588</v>
+        <v>3861739.912637208</v>
       </c>
       <c r="L18" t="n">
-        <v>1584898.755316923</v>
+        <v>3575700.471942727</v>
       </c>
       <c r="M18" t="n">
-        <v>1605257.879353415</v>
+        <v>3664528.452830363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-34288.1027996328</v>
+        <v>4579277.901831078</v>
       </c>
       <c r="C19" t="n">
-        <v>-103840.0280450199</v>
+        <v>3270016.275394565</v>
       </c>
       <c r="D19" t="n">
-        <v>18484.57152589152</v>
+        <v>4182725.229418219</v>
       </c>
       <c r="E19" t="n">
-        <v>-48207.90348597192</v>
+        <v>4813230.420616899</v>
       </c>
       <c r="F19" t="n">
-        <v>-29541.8316827077</v>
+        <v>4157505.44187105</v>
       </c>
       <c r="G19" t="n">
-        <v>-99093.75692809478</v>
+        <v>2848243.815434536</v>
       </c>
       <c r="H19" t="n">
-        <v>23230.84264281663</v>
+        <v>3760952.76945819</v>
       </c>
       <c r="I19" t="n">
-        <v>-43461.63236904681</v>
+        <v>4391457.96065687</v>
       </c>
       <c r="J19" t="n">
-        <v>-24795.56056578258</v>
+        <v>3735732.981911022</v>
       </c>
       <c r="K19" t="n">
-        <v>-94347.48581116967</v>
+        <v>2426471.355474508</v>
       </c>
       <c r="L19" t="n">
-        <v>27977.11375974174</v>
+        <v>3339180.309498162</v>
       </c>
       <c r="M19" t="n">
-        <v>-38715.36125212169</v>
+        <v>3969685.500696841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1548002.771209826</v>
+        <v>1548774.794614324</v>
       </c>
       <c r="C20" t="n">
-        <v>2030786.791726734</v>
+        <v>2014886.510382636</v>
       </c>
       <c r="D20" t="n">
-        <v>1796101.65745779</v>
+        <v>2604590.562747466</v>
       </c>
       <c r="E20" t="n">
-        <v>2253796.534872815</v>
+        <v>2407362.77324201</v>
       </c>
       <c r="F20" t="n">
-        <v>1515729.438342954</v>
+        <v>1362102.29708044</v>
       </c>
       <c r="G20" t="n">
-        <v>1998513.458859861</v>
+        <v>1828214.012848752</v>
       </c>
       <c r="H20" t="n">
-        <v>1763828.324590918</v>
+        <v>2417918.065213582</v>
       </c>
       <c r="I20" t="n">
-        <v>2221523.202005942</v>
+        <v>2220690.275708126</v>
       </c>
       <c r="J20" t="n">
-        <v>1483456.105476081</v>
+        <v>1175429.799546557</v>
       </c>
       <c r="K20" t="n">
-        <v>1966240.125992989</v>
+        <v>1641541.515314868</v>
       </c>
       <c r="L20" t="n">
-        <v>1731554.991724046</v>
+        <v>2231245.567679699</v>
       </c>
       <c r="M20" t="n">
-        <v>2189249.869139071</v>
+        <v>2034017.778174242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1396463.172534007</v>
+        <v>4182542.833330271</v>
       </c>
       <c r="C21" t="n">
-        <v>1285109.447187298</v>
+        <v>3768501.804945437</v>
       </c>
       <c r="D21" t="n">
-        <v>1282409.257280078</v>
+        <v>4249382.934374449</v>
       </c>
       <c r="E21" t="n">
-        <v>1443787.01031702</v>
+        <v>4047490.365858854</v>
       </c>
       <c r="F21" t="n">
-        <v>1380963.576485903</v>
+        <v>4122240.551905192</v>
       </c>
       <c r="G21" t="n">
-        <v>1269609.851139195</v>
+        <v>3708199.523520358</v>
       </c>
       <c r="H21" t="n">
-        <v>1266909.661231974</v>
+        <v>4189080.652949369</v>
       </c>
       <c r="I21" t="n">
-        <v>1428287.414268916</v>
+        <v>3987188.084433774</v>
       </c>
       <c r="J21" t="n">
-        <v>1365463.9804378</v>
+        <v>4061938.270480113</v>
       </c>
       <c r="K21" t="n">
-        <v>1254110.255091091</v>
+        <v>3647897.242095279</v>
       </c>
       <c r="L21" t="n">
-        <v>1251410.06518387</v>
+        <v>4128778.37152429</v>
       </c>
       <c r="M21" t="n">
-        <v>1412787.818220813</v>
+        <v>3926885.803008695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437883.3670347596</v>
+        <v>11920400.45794958</v>
       </c>
       <c r="C22" t="n">
-        <v>437626.6212159964</v>
+        <v>11243555.26046232</v>
       </c>
       <c r="D22" t="n">
-        <v>437456.386236717</v>
+        <v>13181110.77960308</v>
       </c>
       <c r="E22" t="n">
-        <v>437524.2170607072</v>
+        <v>12178810.19686442</v>
       </c>
       <c r="F22" t="n">
-        <v>438086.4883133671</v>
+        <v>12832643.28848567</v>
       </c>
       <c r="G22" t="n">
-        <v>437829.7424946039</v>
+        <v>12155798.09099841</v>
       </c>
       <c r="H22" t="n">
-        <v>437659.5075153245</v>
+        <v>14093353.61013916</v>
       </c>
       <c r="I22" t="n">
-        <v>437727.3383393147</v>
+        <v>13091053.0274005</v>
       </c>
       <c r="J22" t="n">
-        <v>438289.6095919746</v>
+        <v>13744886.11902175</v>
       </c>
       <c r="K22" t="n">
-        <v>438032.8637732114</v>
+        <v>13068040.92153449</v>
       </c>
       <c r="L22" t="n">
-        <v>437862.628793932</v>
+        <v>15005596.44067524</v>
       </c>
       <c r="M22" t="n">
-        <v>437930.4596179223</v>
+        <v>14003295.85793658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5559.712998457329</v>
+        <v>8778471.729039224</v>
       </c>
       <c r="C23" t="n">
-        <v>5625.941754643048</v>
+        <v>7054191.073900468</v>
       </c>
       <c r="D23" t="n">
-        <v>5538.623401793675</v>
+        <v>8016481.722019974</v>
       </c>
       <c r="E23" t="n">
-        <v>5579.339199343643</v>
+        <v>7586100.897245429</v>
       </c>
       <c r="F23" t="n">
-        <v>5567.568539828702</v>
+        <v>7810108.711473053</v>
       </c>
       <c r="G23" t="n">
-        <v>5633.797296014421</v>
+        <v>6085828.056334297</v>
       </c>
       <c r="H23" t="n">
-        <v>5546.478943165048</v>
+        <v>7048118.704453804</v>
       </c>
       <c r="I23" t="n">
-        <v>5587.194740715016</v>
+        <v>6617737.879679259</v>
       </c>
       <c r="J23" t="n">
-        <v>5575.424081200075</v>
+        <v>6841745.693906883</v>
       </c>
       <c r="K23" t="n">
-        <v>5641.652837385794</v>
+        <v>5117465.038768127</v>
       </c>
       <c r="L23" t="n">
-        <v>5554.334484536421</v>
+        <v>6079755.686887633</v>
       </c>
       <c r="M23" t="n">
-        <v>5595.050282086389</v>
+        <v>5649374.862113088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11706559.39255324</v>
+        <v>11218713.08549775</v>
       </c>
       <c r="C24" t="n">
-        <v>11589900.2041902</v>
+        <v>8478621.588398362</v>
       </c>
       <c r="D24" t="n">
-        <v>10399553.87611575</v>
+        <v>10232504.56072165</v>
       </c>
       <c r="E24" t="n">
-        <v>11696835.5773125</v>
+        <v>11214338.54778416</v>
       </c>
       <c r="F24" t="n">
-        <v>12099602.96947298</v>
+        <v>12064654.42942183</v>
       </c>
       <c r="G24" t="n">
-        <v>11982943.78110994</v>
+        <v>9324562.932322444</v>
       </c>
       <c r="H24" t="n">
-        <v>10792597.45303549</v>
+        <v>11078445.90464573</v>
       </c>
       <c r="I24" t="n">
-        <v>12089879.15423224</v>
+        <v>12060279.89170824</v>
       </c>
       <c r="J24" t="n">
-        <v>12492646.54639272</v>
+        <v>12910595.77334592</v>
       </c>
       <c r="K24" t="n">
-        <v>12375987.35802968</v>
+        <v>10170504.27624653</v>
       </c>
       <c r="L24" t="n">
-        <v>11185641.02995524</v>
+        <v>11924387.24856981</v>
       </c>
       <c r="M24" t="n">
-        <v>12482922.73115199</v>
+        <v>12906221.23563232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2642655.227175369</v>
+        <v>5870719.225331448</v>
       </c>
       <c r="C25" t="n">
-        <v>2632439.978239277</v>
+        <v>4487799.741628128</v>
       </c>
       <c r="D25" t="n">
-        <v>2343943.752120681</v>
+        <v>5307931.482538986</v>
       </c>
       <c r="E25" t="n">
-        <v>2706237.899574919</v>
+        <v>5695707.528296789</v>
       </c>
       <c r="F25" t="n">
-        <v>2602858.574361435</v>
+        <v>6232754.922342069</v>
       </c>
       <c r="G25" t="n">
-        <v>2592643.325425344</v>
+        <v>4849835.43863875</v>
       </c>
       <c r="H25" t="n">
-        <v>2304147.099306747</v>
+        <v>5669967.179549607</v>
       </c>
       <c r="I25" t="n">
-        <v>2666441.246760985</v>
+        <v>6057743.225307411</v>
       </c>
       <c r="J25" t="n">
-        <v>2563061.921547501</v>
+        <v>6594790.619352691</v>
       </c>
       <c r="K25" t="n">
-        <v>2552846.67261141</v>
+        <v>5211871.135649371</v>
       </c>
       <c r="L25" t="n">
-        <v>2264350.446492814</v>
+        <v>6032002.876560229</v>
       </c>
       <c r="M25" t="n">
-        <v>2626644.593947052</v>
+        <v>6419778.922318032</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14215498.50608214</v>
+        <v>12066464.14021074</v>
       </c>
       <c r="C26" t="n">
-        <v>14854512.85188898</v>
+        <v>10879355.81522026</v>
       </c>
       <c r="D26" t="n">
-        <v>14258334.49474389</v>
+        <v>11340213.33440044</v>
       </c>
       <c r="E26" t="n">
-        <v>14751240.06100821</v>
+        <v>10556216.65277215</v>
       </c>
       <c r="F26" t="n">
-        <v>14852831.16467977</v>
+        <v>12186123.9598692</v>
       </c>
       <c r="G26" t="n">
-        <v>15491845.5104866</v>
+        <v>10999015.63487872</v>
       </c>
       <c r="H26" t="n">
-        <v>14895667.15334151</v>
+        <v>11459873.1540589</v>
       </c>
       <c r="I26" t="n">
-        <v>15388572.71960583</v>
+        <v>10675876.47243061</v>
       </c>
       <c r="J26" t="n">
-        <v>15490163.82327739</v>
+        <v>12305783.77952766</v>
       </c>
       <c r="K26" t="n">
-        <v>16129178.16908423</v>
+        <v>11118675.45453718</v>
       </c>
       <c r="L26" t="n">
-        <v>15532999.81193914</v>
+        <v>11579532.97371735</v>
       </c>
       <c r="M26" t="n">
-        <v>16025905.37820346</v>
+        <v>10795536.29208907</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12726499.92841217</v>
+        <v>5105901.30391464</v>
       </c>
       <c r="C27" t="n">
-        <v>13986290.26321525</v>
+        <v>4145734.40276089</v>
       </c>
       <c r="D27" t="n">
-        <v>13278702.55908516</v>
+        <v>4705396.433127049</v>
       </c>
       <c r="E27" t="n">
-        <v>13761406.99042743</v>
+        <v>5382165.687592037</v>
       </c>
       <c r="F27" t="n">
-        <v>13382697.7502213</v>
+        <v>5577215.299631245</v>
       </c>
       <c r="G27" t="n">
-        <v>14642488.08502438</v>
+        <v>4617048.398477496</v>
       </c>
       <c r="H27" t="n">
-        <v>13934900.38089429</v>
+        <v>5176710.428843655</v>
       </c>
       <c r="I27" t="n">
-        <v>14417604.81223657</v>
+        <v>5853479.683308642</v>
       </c>
       <c r="J27" t="n">
-        <v>14038895.57203044</v>
+        <v>6048529.295347851</v>
       </c>
       <c r="K27" t="n">
-        <v>15298685.90683352</v>
+        <v>5088362.394194101</v>
       </c>
       <c r="L27" t="n">
-        <v>14591098.20270343</v>
+        <v>5648024.42456026</v>
       </c>
       <c r="M27" t="n">
-        <v>15073802.6340457</v>
+        <v>6324793.679025248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15580540.02564802</v>
+        <v>11537417.92731051</v>
       </c>
       <c r="C28" t="n">
-        <v>17351397.66660473</v>
+        <v>8787404.925916651</v>
       </c>
       <c r="D28" t="n">
-        <v>19121529.4072747</v>
+        <v>10460605.91176348</v>
       </c>
       <c r="E28" t="n">
-        <v>20892461.7054234</v>
+        <v>10775007.93666654</v>
       </c>
       <c r="F28" t="n">
-        <v>22663652.30336953</v>
+        <v>11784750.54943578</v>
       </c>
       <c r="G28" t="n">
-        <v>24434509.94432624</v>
+        <v>9034737.548041919</v>
       </c>
       <c r="H28" t="n">
-        <v>26204641.68499621</v>
+        <v>10707938.53388875</v>
       </c>
       <c r="I28" t="n">
-        <v>27975573.98314491</v>
+        <v>11022340.55879181</v>
       </c>
       <c r="J28" t="n">
-        <v>29746764.58109104</v>
+        <v>12032083.17156105</v>
       </c>
       <c r="K28" t="n">
-        <v>31517622.22204775</v>
+        <v>9282070.170167187</v>
       </c>
       <c r="L28" t="n">
-        <v>33287753.96271772</v>
+        <v>10955271.15601402</v>
       </c>
       <c r="M28" t="n">
-        <v>35058686.26086642</v>
+        <v>11269673.18091708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17460542.50051678</v>
+        <v>2501481.418631766</v>
       </c>
       <c r="C29" t="n">
-        <v>18395951.11893309</v>
+        <v>2605652.172196328</v>
       </c>
       <c r="D29" t="n">
-        <v>19332184.91146113</v>
+        <v>2709840.388409621</v>
       </c>
       <c r="E29" t="n">
-        <v>20268922.48175265</v>
+        <v>2814125.525458909</v>
       </c>
       <c r="F29" t="n">
-        <v>21203770.85553723</v>
+        <v>2918277.02000332</v>
       </c>
       <c r="G29" t="n">
-        <v>22139179.47395353</v>
+        <v>3022447.773567882</v>
       </c>
       <c r="H29" t="n">
-        <v>23075413.26648158</v>
+        <v>3126635.989781175</v>
       </c>
       <c r="I29" t="n">
-        <v>24012150.8367731</v>
+        <v>3230921.126830463</v>
       </c>
       <c r="J29" t="n">
-        <v>24946999.21055768</v>
+        <v>3335072.621374875</v>
       </c>
       <c r="K29" t="n">
-        <v>25882407.82897398</v>
+        <v>3439243.374939437</v>
       </c>
       <c r="L29" t="n">
-        <v>26818641.62150203</v>
+        <v>3543431.59115273</v>
       </c>
       <c r="M29" t="n">
-        <v>27755379.19179355</v>
+        <v>3647716.728202018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45605194.61579294</v>
+        <v>847884.3791026426</v>
       </c>
       <c r="C30" t="n">
-        <v>42025821.17026596</v>
+        <v>630660.6861624353</v>
       </c>
       <c r="D30" t="n">
-        <v>42111017.9165177</v>
+        <v>635013.4296539328</v>
       </c>
       <c r="E30" t="n">
-        <v>46880457.49169322</v>
+        <v>717247.8814093986</v>
       </c>
       <c r="F30" t="n">
-        <v>48696575.00881989</v>
+        <v>895937.5664383895</v>
       </c>
       <c r="G30" t="n">
-        <v>45117201.56329291</v>
+        <v>678713.8734981822</v>
       </c>
       <c r="H30" t="n">
-        <v>45202398.30954465</v>
+        <v>683066.6169896796</v>
       </c>
       <c r="I30" t="n">
-        <v>49971837.88472017</v>
+        <v>765301.0687451455</v>
       </c>
       <c r="J30" t="n">
-        <v>51787955.40184683</v>
+        <v>943990.7537741363</v>
       </c>
       <c r="K30" t="n">
-        <v>48208581.95631985</v>
+        <v>726767.060833929</v>
       </c>
       <c r="L30" t="n">
-        <v>48293778.70257159</v>
+        <v>731119.8043254265</v>
       </c>
       <c r="M30" t="n">
-        <v>53063218.27774712</v>
+        <v>813354.2560808923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40397882.97729744</v>
+        <v>614838.2849155335</v>
       </c>
       <c r="C31" t="n">
-        <v>40410700.30484644</v>
+        <v>608587.1159573806</v>
       </c>
       <c r="D31" t="n">
-        <v>37773528.82069391</v>
+        <v>662380.1577989219</v>
       </c>
       <c r="E31" t="n">
-        <v>41031834.69292697</v>
+        <v>688950.5145392945</v>
       </c>
       <c r="F31" t="n">
-        <v>40970677.86815287</v>
+        <v>628077.2932831325</v>
       </c>
       <c r="G31" t="n">
-        <v>40983495.19570187</v>
+        <v>621826.1243249796</v>
       </c>
       <c r="H31" t="n">
-        <v>38346323.71154934</v>
+        <v>675619.1661665209</v>
       </c>
       <c r="I31" t="n">
-        <v>41604629.5837824</v>
+        <v>702189.5229068935</v>
       </c>
       <c r="J31" t="n">
-        <v>41543472.7590083</v>
+        <v>641316.3016507315</v>
       </c>
       <c r="K31" t="n">
-        <v>41556290.08655731</v>
+        <v>635065.1326925786</v>
       </c>
       <c r="L31" t="n">
-        <v>38919118.60240477</v>
+        <v>688858.1745341199</v>
       </c>
       <c r="M31" t="n">
-        <v>42177424.47463784</v>
+        <v>715428.5312744925</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>891573.7965199682</v>
+        <v>1897450.756213795</v>
       </c>
       <c r="C32" t="n">
-        <v>873027.5920130349</v>
+        <v>1935726.348075646</v>
       </c>
       <c r="D32" t="n">
-        <v>838294.3564568977</v>
+        <v>1974191.607137705</v>
       </c>
       <c r="E32" t="n">
-        <v>1475729.826955561</v>
+        <v>2012622.132250192</v>
       </c>
       <c r="F32" t="n">
-        <v>1468771.912349506</v>
+        <v>2051057.217808371</v>
       </c>
       <c r="G32" t="n">
-        <v>1450225.707842573</v>
+        <v>2089332.809670222</v>
       </c>
       <c r="H32" t="n">
-        <v>1415492.472286435</v>
+        <v>2127798.068732281</v>
       </c>
       <c r="I32" t="n">
-        <v>2052927.942785099</v>
+        <v>2166228.593844768</v>
       </c>
       <c r="J32" t="n">
-        <v>2045970.028179044</v>
+        <v>2204663.679402947</v>
       </c>
       <c r="K32" t="n">
-        <v>2027423.82367211</v>
+        <v>2242939.271264798</v>
       </c>
       <c r="L32" t="n">
-        <v>1992690.588115973</v>
+        <v>2281404.530326857</v>
       </c>
       <c r="M32" t="n">
-        <v>2630126.058614637</v>
+        <v>2319835.055439344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4537438.803676277</v>
+        <v>2283104.950877494</v>
       </c>
       <c r="C33" t="n">
-        <v>4722728.006338199</v>
+        <v>2305627.776493598</v>
       </c>
       <c r="D33" t="n">
-        <v>4259906.479189299</v>
+        <v>2328594.68265465</v>
       </c>
       <c r="E33" t="n">
-        <v>4429515.054795256</v>
+        <v>2351344.94128991</v>
       </c>
       <c r="F33" t="n">
-        <v>4996209.247680694</v>
+        <v>2374015.311633659</v>
       </c>
       <c r="G33" t="n">
-        <v>5181498.450342615</v>
+        <v>2396538.137249763</v>
       </c>
       <c r="H33" t="n">
-        <v>4718676.923193716</v>
+        <v>2419505.043410815</v>
       </c>
       <c r="I33" t="n">
-        <v>4888285.498799672</v>
+        <v>2442255.302046075</v>
       </c>
       <c r="J33" t="n">
-        <v>5454979.69168511</v>
+        <v>2464925.672389823</v>
       </c>
       <c r="K33" t="n">
-        <v>5640268.894347032</v>
+        <v>2487448.498005927</v>
       </c>
       <c r="L33" t="n">
-        <v>5177447.367198132</v>
+        <v>2510415.404166979</v>
       </c>
       <c r="M33" t="n">
-        <v>5347055.942804089</v>
+        <v>2533165.662802239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10019904.40111377</v>
+        <v>2807149.38727553</v>
       </c>
       <c r="C34" t="n">
-        <v>10426527.76996593</v>
+        <v>2911914.730899465</v>
       </c>
       <c r="D34" t="n">
-        <v>10705765.76947266</v>
+        <v>2932912.491160197</v>
       </c>
       <c r="E34" t="n">
-        <v>10991676.84490654</v>
+        <v>2746926.639526835</v>
       </c>
       <c r="F34" t="n">
-        <v>10716855.35185817</v>
+        <v>3019628.257550064</v>
       </c>
       <c r="G34" t="n">
-        <v>11123478.72071032</v>
+        <v>3124393.601174</v>
       </c>
       <c r="H34" t="n">
-        <v>11402716.72021706</v>
+        <v>3145391.361434732</v>
       </c>
       <c r="I34" t="n">
-        <v>11688627.79565093</v>
+        <v>2959405.509801369</v>
       </c>
       <c r="J34" t="n">
-        <v>11413806.30260257</v>
+        <v>3232107.127824599</v>
       </c>
       <c r="K34" t="n">
-        <v>11820429.67145472</v>
+        <v>3336872.471448534</v>
       </c>
       <c r="L34" t="n">
-        <v>12099667.67096146</v>
+        <v>3357870.231709266</v>
       </c>
       <c r="M34" t="n">
-        <v>12385578.74639533</v>
+        <v>3171884.380075904</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4645755.916354929</v>
+        <v>1609480.294821848</v>
       </c>
       <c r="C35" t="n">
-        <v>4732366.688631927</v>
+        <v>1616391.138430008</v>
       </c>
       <c r="D35" t="n">
-        <v>4819034.173655656</v>
+        <v>1623360.229518482</v>
       </c>
       <c r="E35" t="n">
-        <v>4906398.112011191</v>
+        <v>1630423.269945987</v>
       </c>
       <c r="F35" t="n">
-        <v>4992878.836554584</v>
+        <v>1637006.990664899</v>
       </c>
       <c r="G35" t="n">
-        <v>5079489.608831582</v>
+        <v>1643917.834273059</v>
       </c>
       <c r="H35" t="n">
-        <v>5166157.093855311</v>
+        <v>1650886.925361533</v>
       </c>
       <c r="I35" t="n">
-        <v>5253521.032210846</v>
+        <v>1657949.965789038</v>
       </c>
       <c r="J35" t="n">
-        <v>5340001.756754239</v>
+        <v>1664533.68650795</v>
       </c>
       <c r="K35" t="n">
-        <v>5426612.529031237</v>
+        <v>1671444.530116111</v>
       </c>
       <c r="L35" t="n">
-        <v>5513280.014054966</v>
+        <v>1678413.621204585</v>
       </c>
       <c r="M35" t="n">
-        <v>5600643.9524105</v>
+        <v>1685476.66163209</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2817557.560756146</v>
+        <v>1381508.157571132</v>
       </c>
       <c r="C36" t="n">
-        <v>2796178.104636472</v>
+        <v>1389490.078453315</v>
       </c>
       <c r="D36" t="n">
-        <v>2774698.443094755</v>
+        <v>1609785.227069345</v>
       </c>
       <c r="E36" t="n">
-        <v>2910271.613607877</v>
+        <v>1426988.245493591</v>
       </c>
       <c r="F36" t="n">
-        <v>2730117.66746148</v>
+        <v>1398467.974633856</v>
       </c>
       <c r="G36" t="n">
-        <v>2708738.211341806</v>
+        <v>1406449.895516038</v>
       </c>
       <c r="H36" t="n">
-        <v>2687258.549800089</v>
+        <v>1626745.044132069</v>
       </c>
       <c r="I36" t="n">
-        <v>2822831.720313211</v>
+        <v>1443948.062556315</v>
       </c>
       <c r="J36" t="n">
-        <v>2642677.774166814</v>
+        <v>1415427.791696579</v>
       </c>
       <c r="K36" t="n">
-        <v>2621298.31804714</v>
+        <v>1423409.712578762</v>
       </c>
       <c r="L36" t="n">
-        <v>2599818.656505423</v>
+        <v>1643704.861194792</v>
       </c>
       <c r="M36" t="n">
-        <v>2735391.827018545</v>
+        <v>1460907.879619038</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5998790.774321315</v>
+        <v>3816351.568527818</v>
       </c>
       <c r="C37" t="n">
-        <v>4927394.364498599</v>
+        <v>3202751.896913523</v>
       </c>
       <c r="D37" t="n">
-        <v>3611665.797361482</v>
+        <v>3477669.348153959</v>
       </c>
       <c r="E37" t="n">
-        <v>4659776.323893247</v>
+        <v>4072084.629683718</v>
       </c>
       <c r="F37" t="n">
-        <v>5896324.05141417</v>
+        <v>3748757.631179855</v>
       </c>
       <c r="G37" t="n">
-        <v>4824927.641591455</v>
+        <v>3135157.95956556</v>
       </c>
       <c r="H37" t="n">
-        <v>3509199.074454338</v>
+        <v>3410075.410805995</v>
       </c>
       <c r="I37" t="n">
-        <v>4557309.600986104</v>
+        <v>4004490.692335755</v>
       </c>
       <c r="J37" t="n">
-        <v>5793857.328507028</v>
+        <v>3681163.693831891</v>
       </c>
       <c r="K37" t="n">
-        <v>4722460.918684312</v>
+        <v>3067564.022217596</v>
       </c>
       <c r="L37" t="n">
-        <v>3406732.351547196</v>
+        <v>3342481.473458032</v>
       </c>
       <c r="M37" t="n">
-        <v>4454842.878078961</v>
+        <v>3936896.754987791</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3131607.38827437</v>
+        <v>3829852.280264643</v>
       </c>
       <c r="C38" t="n">
-        <v>1723862.565722118</v>
+        <v>3788247.131872244</v>
       </c>
       <c r="D38" t="n">
-        <v>2534341.720437292</v>
+        <v>3982370.50809373</v>
       </c>
       <c r="E38" t="n">
-        <v>3176126.158661104</v>
+        <v>3807831.155972338</v>
       </c>
       <c r="F38" t="n">
-        <v>3108304.910361908</v>
+        <v>4013696.028968486</v>
       </c>
       <c r="G38" t="n">
-        <v>1700560.087809657</v>
+        <v>3972090.880576087</v>
       </c>
       <c r="H38" t="n">
-        <v>2511039.242524831</v>
+        <v>4166214.256797573</v>
       </c>
       <c r="I38" t="n">
-        <v>3152823.680748642</v>
+        <v>3991674.904676181</v>
       </c>
       <c r="J38" t="n">
-        <v>3085002.432449447</v>
+        <v>4197539.777672329</v>
       </c>
       <c r="K38" t="n">
-        <v>1677257.609897196</v>
+        <v>4155934.62927993</v>
       </c>
       <c r="L38" t="n">
-        <v>2487736.76461237</v>
+        <v>4350058.005501416</v>
       </c>
       <c r="M38" t="n">
-        <v>3129521.202836181</v>
+        <v>4175518.653380024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2598115.700809287</v>
+        <v>5260017.918479381</v>
       </c>
       <c r="C39" t="n">
-        <v>3039378.964570221</v>
+        <v>5314079.27798787</v>
       </c>
       <c r="D39" t="n">
-        <v>2465622.531168188</v>
+        <v>5368490.003323931</v>
       </c>
       <c r="E39" t="n">
-        <v>3403896.733523442</v>
+        <v>5422206.372618701</v>
       </c>
       <c r="F39" t="n">
-        <v>2622648.238315789</v>
+        <v>5476353.458059823</v>
       </c>
       <c r="G39" t="n">
-        <v>3063911.502076723</v>
+        <v>5530414.817568312</v>
       </c>
       <c r="H39" t="n">
-        <v>2490155.068674691</v>
+        <v>5584825.542904373</v>
       </c>
       <c r="I39" t="n">
-        <v>3428429.271029944</v>
+        <v>5638541.912199143</v>
       </c>
       <c r="J39" t="n">
-        <v>2647180.775822291</v>
+        <v>5692688.997640265</v>
       </c>
       <c r="K39" t="n">
-        <v>3088444.039583225</v>
+        <v>5746750.357148754</v>
       </c>
       <c r="L39" t="n">
-        <v>2514687.606181193</v>
+        <v>5801161.082484815</v>
       </c>
       <c r="M39" t="n">
-        <v>3452961.808536446</v>
+        <v>5854877.451779585</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11566846.51514584</v>
+        <v>5269383.642052483</v>
       </c>
       <c r="C40" t="n">
-        <v>11983448.35573037</v>
+        <v>5016844.119798514</v>
       </c>
       <c r="D40" t="n">
-        <v>11369330.73630792</v>
+        <v>5185677.275827549</v>
       </c>
       <c r="E40" t="n">
-        <v>13495026.06507509</v>
+        <v>5392912.822388649</v>
       </c>
       <c r="F40" t="n">
-        <v>12587863.427551</v>
+        <v>5501047.766004365</v>
       </c>
       <c r="G40" t="n">
-        <v>13004465.26813552</v>
+        <v>5248508.243750396</v>
       </c>
       <c r="H40" t="n">
-        <v>12390347.64871307</v>
+        <v>5417341.399779432</v>
       </c>
       <c r="I40" t="n">
-        <v>14516042.97748024</v>
+        <v>5624576.946340531</v>
       </c>
       <c r="J40" t="n">
-        <v>13608880.33995615</v>
+        <v>5732711.889956247</v>
       </c>
       <c r="K40" t="n">
-        <v>14025482.18054068</v>
+        <v>5480172.367702278</v>
       </c>
       <c r="L40" t="n">
-        <v>13411364.56111823</v>
+        <v>5649005.523731314</v>
       </c>
       <c r="M40" t="n">
-        <v>15537059.8898854</v>
+        <v>5856241.070292413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7876389.340444641</v>
+        <v>3361510.734045155</v>
       </c>
       <c r="C41" t="n">
-        <v>8294412.390898308</v>
+        <v>3006486.599016346</v>
       </c>
       <c r="D41" t="n">
-        <v>6642593.362722691</v>
+        <v>3050791.346045856</v>
       </c>
       <c r="E41" t="n">
-        <v>7606149.772635903</v>
+        <v>3068383.400599435</v>
       </c>
       <c r="F41" t="n">
-        <v>7120141.326398475</v>
+        <v>3532106.525820417</v>
       </c>
       <c r="G41" t="n">
-        <v>7538164.376852142</v>
+        <v>3177082.390791608</v>
       </c>
       <c r="H41" t="n">
-        <v>5886345.348676525</v>
+        <v>3221387.137821118</v>
       </c>
       <c r="I41" t="n">
-        <v>6849901.758589737</v>
+        <v>3238979.192374696</v>
       </c>
       <c r="J41" t="n">
-        <v>6363893.312352309</v>
+        <v>3702702.317595679</v>
       </c>
       <c r="K41" t="n">
-        <v>6781916.362805976</v>
+        <v>3347678.18256687</v>
       </c>
       <c r="L41" t="n">
-        <v>5130097.334630359</v>
+        <v>3391982.92959638</v>
       </c>
       <c r="M41" t="n">
-        <v>6093653.744543571</v>
+        <v>3409574.984149958</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11096058.94719964</v>
+        <v>4144195.684019689</v>
       </c>
       <c r="C42" t="n">
-        <v>11282185.43701841</v>
+        <v>3983449.211694694</v>
       </c>
       <c r="D42" t="n">
-        <v>9637074.219118312</v>
+        <v>3698887.638189615</v>
       </c>
       <c r="E42" t="n">
-        <v>11400447.4961057</v>
+        <v>3832896.962931759</v>
       </c>
       <c r="F42" t="n">
-        <v>12362153.63235592</v>
+        <v>4215903.738872373</v>
       </c>
       <c r="G42" t="n">
-        <v>12548280.12217468</v>
+        <v>4055157.266547379</v>
       </c>
       <c r="H42" t="n">
-        <v>10903168.90427459</v>
+        <v>3770595.6930423</v>
       </c>
       <c r="I42" t="n">
-        <v>12666542.18126198</v>
+        <v>3904605.017784444</v>
       </c>
       <c r="J42" t="n">
-        <v>13628248.3175122</v>
+        <v>4287611.793725058</v>
       </c>
       <c r="K42" t="n">
-        <v>13814374.80733096</v>
+        <v>4126865.321400064</v>
       </c>
       <c r="L42" t="n">
-        <v>12169263.58943087</v>
+        <v>3842303.747894985</v>
       </c>
       <c r="M42" t="n">
-        <v>13932636.86641826</v>
+        <v>3976313.072637129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5409046.121088873</v>
+        <v>3293819.066729113</v>
       </c>
       <c r="C43" t="n">
-        <v>5630192.116247157</v>
+        <v>2622074.40419435</v>
       </c>
       <c r="D43" t="n">
-        <v>4183361.444581327</v>
+        <v>2728917.215031703</v>
       </c>
       <c r="E43" t="n">
-        <v>4926592.152574109</v>
+        <v>3212282.731206289</v>
       </c>
       <c r="F43" t="n">
-        <v>5377382.676361567</v>
+        <v>3289301.629562312</v>
       </c>
       <c r="G43" t="n">
-        <v>5598528.671519851</v>
+        <v>2617556.96702755</v>
       </c>
       <c r="H43" t="n">
-        <v>4151697.999854022</v>
+        <v>2724399.777864902</v>
       </c>
       <c r="I43" t="n">
-        <v>4894928.707846804</v>
+        <v>3207765.294039488</v>
       </c>
       <c r="J43" t="n">
-        <v>5345719.231634262</v>
+        <v>3284784.192395511</v>
       </c>
       <c r="K43" t="n">
-        <v>5566865.226792546</v>
+        <v>2613039.529860749</v>
       </c>
       <c r="L43" t="n">
-        <v>4120034.555126716</v>
+        <v>2719882.340698102</v>
       </c>
       <c r="M43" t="n">
-        <v>4863265.263119498</v>
+        <v>3203247.856872688</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13722075.346605</v>
+        <v>5586708.35301188</v>
       </c>
       <c r="C44" t="n">
-        <v>15308457.81630101</v>
+        <v>5333242.145488535</v>
       </c>
       <c r="D44" t="n">
-        <v>14259826.47009354</v>
+        <v>5394140.697451015</v>
       </c>
       <c r="E44" t="n">
-        <v>14976147.80658164</v>
+        <v>5792388.282574521</v>
       </c>
       <c r="F44" t="n">
-        <v>14766756.29785368</v>
+        <v>5705280.001417063</v>
       </c>
       <c r="G44" t="n">
-        <v>16353138.76754969</v>
+        <v>5451813.793893718</v>
       </c>
       <c r="H44" t="n">
-        <v>15304507.42134222</v>
+        <v>5512712.345856198</v>
       </c>
       <c r="I44" t="n">
-        <v>16020828.75783032</v>
+        <v>5910959.930979704</v>
       </c>
       <c r="J44" t="n">
-        <v>15811437.24910235</v>
+        <v>5823851.649822246</v>
       </c>
       <c r="K44" t="n">
-        <v>17397819.71879836</v>
+        <v>5570385.442298901</v>
       </c>
       <c r="L44" t="n">
-        <v>16349188.37259089</v>
+        <v>5631283.994261381</v>
       </c>
       <c r="M44" t="n">
-        <v>17065509.709079</v>
+        <v>6029531.579384888</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5653749.575152336</v>
+        <v>3353326.17685275</v>
       </c>
       <c r="C45" t="n">
-        <v>5907824.582429903</v>
+        <v>3156611.412843929</v>
       </c>
       <c r="D45" t="n">
-        <v>5072019.799534739</v>
+        <v>2907515.336454742</v>
       </c>
       <c r="E45" t="n">
-        <v>5580109.017714945</v>
+        <v>3308103.78184281</v>
       </c>
       <c r="F45" t="n">
-        <v>6136410.773404604</v>
+        <v>3459000.194862457</v>
       </c>
       <c r="G45" t="n">
-        <v>6390485.780682171</v>
+        <v>3262285.430853636</v>
       </c>
       <c r="H45" t="n">
-        <v>5554680.997787007</v>
+        <v>3013189.354464449</v>
       </c>
       <c r="I45" t="n">
-        <v>6062770.215967213</v>
+        <v>3413777.799852517</v>
       </c>
       <c r="J45" t="n">
-        <v>6619071.971656872</v>
+        <v>3564674.212872164</v>
       </c>
       <c r="K45" t="n">
-        <v>6873146.978934439</v>
+        <v>3367959.448863343</v>
       </c>
       <c r="L45" t="n">
-        <v>6037342.196039275</v>
+        <v>3118863.372474157</v>
       </c>
       <c r="M45" t="n">
-        <v>6545431.414219481</v>
+        <v>3519451.817862225</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10393605.86700136</v>
+        <v>1999544.014045542</v>
       </c>
       <c r="C46" t="n">
-        <v>10221115.57783447</v>
+        <v>1983093.328043881</v>
       </c>
       <c r="D46" t="n">
-        <v>7240969.27760464</v>
+        <v>2110702.116915548</v>
       </c>
       <c r="E46" t="n">
-        <v>8520810.571034336</v>
+        <v>2236009.710327852</v>
       </c>
       <c r="F46" t="n">
-        <v>9261155.306458641</v>
+        <v>1998830.585979004</v>
       </c>
       <c r="G46" t="n">
-        <v>9088665.017291749</v>
+        <v>1982379.899977342</v>
       </c>
       <c r="H46" t="n">
-        <v>6108518.717061922</v>
+        <v>2109988.68884901</v>
       </c>
       <c r="I46" t="n">
-        <v>7388360.010491619</v>
+        <v>2235296.282261313</v>
       </c>
       <c r="J46" t="n">
-        <v>8128704.745915924</v>
+        <v>1998117.157912465</v>
       </c>
       <c r="K46" t="n">
-        <v>7956214.456749031</v>
+        <v>1981666.471910804</v>
       </c>
       <c r="L46" t="n">
-        <v>4976068.156519204</v>
+        <v>2109275.260782471</v>
       </c>
       <c r="M46" t="n">
-        <v>6255909.449948901</v>
+        <v>2234582.854194774</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2289437.584489142</v>
+        <v>1678122.6627079</v>
       </c>
       <c r="C47" t="n">
-        <v>2379542.808697724</v>
+        <v>1688368.175602187</v>
       </c>
       <c r="D47" t="n">
-        <v>2469655.343916432</v>
+        <v>1698534.747664173</v>
       </c>
       <c r="E47" t="n">
-        <v>2559788.264575145</v>
+        <v>1708869.734397047</v>
       </c>
       <c r="F47" t="n">
-        <v>2650019.132974391</v>
+        <v>1719166.06697384</v>
       </c>
       <c r="G47" t="n">
-        <v>2740124.357182974</v>
+        <v>1729411.579868128</v>
       </c>
       <c r="H47" t="n">
-        <v>2830236.892401681</v>
+        <v>1739578.151930114</v>
       </c>
       <c r="I47" t="n">
-        <v>2920369.813060394</v>
+        <v>1749913.138662987</v>
       </c>
       <c r="J47" t="n">
-        <v>3010600.68145964</v>
+        <v>1760209.47123978</v>
       </c>
       <c r="K47" t="n">
-        <v>3100705.905668223</v>
+        <v>1770454.984134068</v>
       </c>
       <c r="L47" t="n">
-        <v>3190818.440886931</v>
+        <v>1780621.556196054</v>
       </c>
       <c r="M47" t="n">
-        <v>3280951.361545644</v>
+        <v>1790956.542928927</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>671601.686566212</v>
+        <v>5608792.76408427</v>
       </c>
       <c r="C48" t="n">
-        <v>849765.7459534857</v>
+        <v>5484670.292038202</v>
       </c>
       <c r="D48" t="n">
-        <v>632669.089521512</v>
+        <v>5582888.646423839</v>
       </c>
       <c r="E48" t="n">
-        <v>637089.8353333072</v>
+        <v>5821011.895525275</v>
       </c>
       <c r="F48" t="n">
-        <v>720194.7740540442</v>
+        <v>6167447.551354071</v>
       </c>
       <c r="G48" t="n">
-        <v>898358.8334413179</v>
+        <v>6043325.079308003</v>
       </c>
       <c r="H48" t="n">
-        <v>681262.1770093442</v>
+        <v>6141543.43369364</v>
       </c>
       <c r="I48" t="n">
-        <v>685682.9228211393</v>
+        <v>6379666.682795076</v>
       </c>
       <c r="J48" t="n">
-        <v>768787.8615418763</v>
+        <v>6726102.338623872</v>
       </c>
       <c r="K48" t="n">
-        <v>946951.9209291501</v>
+        <v>6601979.866577804</v>
       </c>
       <c r="L48" t="n">
-        <v>729855.2644971764</v>
+        <v>6700198.220963441</v>
       </c>
       <c r="M48" t="n">
-        <v>734276.0103089715</v>
+        <v>6938321.470064877</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>770477.6082666195</v>
+        <v>608547.0328734451</v>
       </c>
       <c r="C49" t="n">
-        <v>661124.8541159164</v>
+        <v>570183.5100787531</v>
       </c>
       <c r="D49" t="n">
-        <v>689456.8558678742</v>
+        <v>582608.5796896321</v>
       </c>
       <c r="E49" t="n">
-        <v>704700.5009845467</v>
+        <v>621053.0590684821</v>
       </c>
       <c r="F49" t="n">
-        <v>792351.4662978556</v>
+        <v>608933.7102992105</v>
       </c>
       <c r="G49" t="n">
-        <v>682998.7121471525</v>
+        <v>570570.1875045185</v>
       </c>
       <c r="H49" t="n">
-        <v>711330.7138991103</v>
+        <v>582995.2571153975</v>
       </c>
       <c r="I49" t="n">
-        <v>726574.3590157828</v>
+        <v>621439.7364942476</v>
       </c>
       <c r="J49" t="n">
-        <v>814225.3243290917</v>
+        <v>609320.3877249759</v>
       </c>
       <c r="K49" t="n">
-        <v>704872.5701783886</v>
+        <v>570956.864930284</v>
       </c>
       <c r="L49" t="n">
-        <v>733204.5719303464</v>
+        <v>583381.9345411629</v>
       </c>
       <c r="M49" t="n">
-        <v>748448.2170470189</v>
+        <v>621826.413920013</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1712956.012598963</v>
+        <v>2856046.541623202</v>
       </c>
       <c r="C50" t="n">
-        <v>1740986.68024904</v>
+        <v>2952410.473283711</v>
       </c>
       <c r="D50" t="n">
-        <v>1768824.291689042</v>
+        <v>3049086.092536938</v>
       </c>
       <c r="E50" t="n">
-        <v>1796853.98701094</v>
+        <v>3145570.357707537</v>
       </c>
       <c r="F50" t="n">
-        <v>1824814.19961979</v>
+        <v>3242236.539090602</v>
       </c>
       <c r="G50" t="n">
-        <v>1852844.867269868</v>
+        <v>3338600.470751112</v>
       </c>
       <c r="H50" t="n">
-        <v>1880682.478709869</v>
+        <v>3435276.090004339</v>
       </c>
       <c r="I50" t="n">
-        <v>1908712.174031767</v>
+        <v>3531760.355174937</v>
       </c>
       <c r="J50" t="n">
-        <v>1936672.386640617</v>
+        <v>3628426.536558003</v>
       </c>
       <c r="K50" t="n">
-        <v>1964703.054290695</v>
+        <v>3724790.468218512</v>
       </c>
       <c r="L50" t="n">
-        <v>1992540.665730696</v>
+        <v>3821466.087471739</v>
       </c>
       <c r="M50" t="n">
-        <v>2020570.361052594</v>
+        <v>3917950.352642338</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2210172.408316197</v>
+        <v>2939471.232551291</v>
       </c>
       <c r="C51" t="n">
-        <v>2230663.956094637</v>
+        <v>3026356.763679013</v>
       </c>
       <c r="D51" t="n">
-        <v>2251033.266851229</v>
+        <v>3116467.522979193</v>
       </c>
       <c r="E51" t="n">
-        <v>2271749.844482565</v>
+        <v>3205062.291559039</v>
       </c>
       <c r="F51" t="n">
-        <v>2292289.798494012</v>
+        <v>3295816.199777377</v>
       </c>
       <c r="G51" t="n">
-        <v>2312781.346272451</v>
+        <v>3382701.730905099</v>
       </c>
       <c r="H51" t="n">
-        <v>2333150.657029043</v>
+        <v>3472812.49020528</v>
       </c>
       <c r="I51" t="n">
-        <v>2353867.23466038</v>
+        <v>3561407.258785125</v>
       </c>
       <c r="J51" t="n">
-        <v>2374407.188671826</v>
+        <v>3652161.167003463</v>
       </c>
       <c r="K51" t="n">
-        <v>2394898.736450265</v>
+        <v>3739046.698131185</v>
       </c>
       <c r="L51" t="n">
-        <v>2415268.047206858</v>
+        <v>3829157.457431366</v>
       </c>
       <c r="M51" t="n">
-        <v>2435984.624838194</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2636607.27979908</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2970341.209385477</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2793220.621736479</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3046465.500266151</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2909945.262925013</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3243679.19251141</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3066558.604862412</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3319803.483392084</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3183283.246050945</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3517017.175637342</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3339896.587988344</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3593141.466518016</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1195012.704542722</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1194913.702367802</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1195121.11244883</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1195365.155913722</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1195634.442886007</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1195535.440711087</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1195742.850792115</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1195986.894257007</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1196256.181229293</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1196157.179054373</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1196364.589135401</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1196608.632600292</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1428020.190372662</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1398335.938589261</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1409436.493258625</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1631975.502978822</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1457185.617227933</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1427501.365444532</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1438601.920113895</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1661140.929834093</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1486351.044083204</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1456666.792299803</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1467767.346969166</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1690306.356689364</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3981158.301082457</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3826464.638868558</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3261304.694991855</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3376600.724787354</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3923566.858404281</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3768873.196190382</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3203713.252313679</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3319009.282109178</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3865975.415726105</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3711281.753512206</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3146121.809635503</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3261417.839431002</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3520488.851568595</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3792476.324775603</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3748532.513099392</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3964029.429770811</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3687095.86522393</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3959083.338430938</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3915139.526754727</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4130636.443426145</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3853702.878879264</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4125690.352086273</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4081746.540410061</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4297243.45708148</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5455175.551117676</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5521743.744058765</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5588253.225516073</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5655131.336322362</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5721307.794125925</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5787875.987067014</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5854385.468524322</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5921263.57933061</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5987440.037134173</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6054008.230075262</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6120517.71153257</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6187395.822338859</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5292712.139043661</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5329448.774330785</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5085789.256917086</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5341024.419349062</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5609736.734683605</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5646473.369970729</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5402813.852557031</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5658049.014989006</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5926761.330323549</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5963497.965610673</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5719838.448196975</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5975073.61062895</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3109218.004791469</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3633474.462808365</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3134225.053091341</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3017628.274620207</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3332150.370141834</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3856406.828158731</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3357157.418441707</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3240560.639970573</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3555082.7354922</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4079339.193509096</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3580089.783792072</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3463493.005320938</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4520849.628590226</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4725492.060475793</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4593124.060235205</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4295744.664621575</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4708357.413163872</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4912999.845049438</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4780631.84480885</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4483252.449195219</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4895865.197737517</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5100507.629623082</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4968139.629382495</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4670760.233768864</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3320171.442249225</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3404407.870081312</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2802473.630383465</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2852247.728982274</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3300351.989749851</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3384588.417581938</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2782654.17788409</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2832428.276482899</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3280532.537250476</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3364768.965082563</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2762834.725384715</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2812608.823983524</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5653108.611734397</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5518742.693636432</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5471444.254464589</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5667485.704461323</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5799344.877208351</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5664978.959110387</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5617680.519938543</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5813721.969935277</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5945581.142682306</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5811215.224584341</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5763916.785412498</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5959958.235409232</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3334437.719247096</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3409975.568445544</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3195497.233094852</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2937539.042760571</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3395763.086170443</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3471300.935368891</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3256822.600018199</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2998864.409683918</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3457088.45309379</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3532626.302292238</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3318147.966941546</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3060189.776607265</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2292432.101762335</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2018697.200692235</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2006416.620738517</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2132088.184946534</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2301486.397941549</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2027751.496871449</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2015470.916917731</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2141142.481125747</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2310540.694120762</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2036805.793050662</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2024525.213096944</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2150196.777304961</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1685248.835692467</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1696934.077727149</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1708570.056793575</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1720127.047365193</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1731854.318919599</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1743539.560954281</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1755175.540020707</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1766732.530592325</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1778459.802146731</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1790145.044181413</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1801781.023247839</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1813338.013819457</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5080325.529121503</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5459236.183185678</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5314741.419879344</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5395164.687959422</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5566077.036774792</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5944987.690838967</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5800492.927532633</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5880916.195612711</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6051828.54442808</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6430739.198492255</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6286244.435185921</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6366667.703265999</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>696240.3409290598</v>
-      </c>
-      <c r="C67" t="n">
-        <v>677491.3689329403</v>
-      </c>
-      <c r="D67" t="n">
-        <v>631227.5818899454</v>
-      </c>
-      <c r="E67" t="n">
-        <v>646144.8060417259</v>
-      </c>
-      <c r="F67" t="n">
-        <v>696610.5142209576</v>
-      </c>
-      <c r="G67" t="n">
-        <v>677861.5422248382</v>
-      </c>
-      <c r="H67" t="n">
-        <v>631597.7551818433</v>
-      </c>
-      <c r="I67" t="n">
-        <v>646514.9793336238</v>
-      </c>
-      <c r="J67" t="n">
-        <v>696980.6875128555</v>
-      </c>
-      <c r="K67" t="n">
-        <v>678231.715516736</v>
-      </c>
-      <c r="L67" t="n">
-        <v>631967.9284737412</v>
-      </c>
-      <c r="M67" t="n">
-        <v>646885.1526255216</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3071688.945062126</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3330267.215838958</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2871344.979459172</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3528006.565750718</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3465010.236682692</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3723588.507459523</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3264666.271079738</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3921327.857371284</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3858331.528303257</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4116909.799080089</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3657987.562700303</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4314649.148991849</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3070464.633397309</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3186287.603107056</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3301869.072453687</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3417663.810721701</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3533387.383049553</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3649210.3527593</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3764791.822105932</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3880586.560373945</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3996310.132701797</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4112133.102411544</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4227714.571758175</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4343509.310026188</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7470603.964130295</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7471706.051013144</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7472462.830443837</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7473496.833919759</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7473591.010327106</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7474693.097209955</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7475449.876640648</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7476483.88011657</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7476578.056523917</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7477680.143406766</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7478436.922837459</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7479470.926313381</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>21194256.64058879</v>
-      </c>
-      <c r="C71" t="n">
-        <v>26088896.04479269</v>
-      </c>
-      <c r="D71" t="n">
-        <v>21940418.6170131</v>
-      </c>
-      <c r="E71" t="n">
-        <v>25206443.67433941</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25468460.25399095</v>
-      </c>
-      <c r="G71" t="n">
-        <v>30363099.65819485</v>
-      </c>
-      <c r="H71" t="n">
-        <v>26214622.23041526</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29480647.28774157</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29742663.86739311</v>
-      </c>
-      <c r="K71" t="n">
-        <v>34637303.27159701</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30488825.84381742</v>
-      </c>
-      <c r="M71" t="n">
-        <v>33754850.90114373</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4744207.876515205</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3005655.245412332</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5371209.957081763</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2666964.748345656</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4990997.720595232</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3252445.089492359</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5617999.80116179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2913754.592425683</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5237787.564675259</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3499234.933572386</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5864789.645241817</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3160544.43650571</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9314310.597142024</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9563253.133537279</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9812688.114031103</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10062649.42539457</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10312168.19605338</v>
-      </c>
-      <c r="G73" t="n">
-        <v>10561110.73244863</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10810545.71294245</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11060507.02430592</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11310025.79496473</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11558968.33135998</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11808403.31185381</v>
-      </c>
-      <c r="M73" t="n">
-        <v>12058364.62321727</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16854371.22704522</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18145545.33737032</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15226971.04773987</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17129408.36426048</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17007581.81869898</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18298755.92902407</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15380181.63939363</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17282618.95591424</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17160792.41035274</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18451966.52067783</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15533392.23104739</v>
-      </c>
-      <c r="M74" t="n">
-        <v>17435829.547568</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25842363.98390634</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26900137.95116577</v>
-      </c>
-      <c r="D75" t="n">
-        <v>25881238.81476213</v>
-      </c>
-      <c r="E75" t="n">
-        <v>26911695.53160151</v>
-      </c>
-      <c r="F75" t="n">
-        <v>27938860.45675219</v>
-      </c>
-      <c r="G75" t="n">
-        <v>28996634.42401162</v>
-      </c>
-      <c r="H75" t="n">
-        <v>27977735.28760798</v>
-      </c>
-      <c r="I75" t="n">
-        <v>29008192.00444736</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30035356.92959804</v>
-      </c>
-      <c r="K75" t="n">
-        <v>31093130.89685747</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30074231.76045383</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31104688.47729321</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15580540.02564802</v>
-      </c>
-      <c r="C76" t="n">
-        <v>17351397.66660473</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19121529.4072747</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20892461.7054234</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22663652.30336953</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24434509.94432624</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26204641.68499621</v>
-      </c>
-      <c r="I76" t="n">
-        <v>27975573.98314491</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29746764.58109104</v>
-      </c>
-      <c r="K76" t="n">
-        <v>31517622.22204775</v>
-      </c>
-      <c r="L76" t="n">
-        <v>33287753.96271772</v>
-      </c>
-      <c r="M76" t="n">
-        <v>35058686.26086642</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17486598.34811716</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18411418.0114962</v>
-      </c>
-      <c r="D77" t="n">
-        <v>19336920.12799093</v>
-      </c>
-      <c r="E77" t="n">
-        <v>20263094.45229016</v>
-      </c>
-      <c r="F77" t="n">
-        <v>21187336.78882888</v>
-      </c>
-      <c r="G77" t="n">
-        <v>22112156.45220792</v>
-      </c>
-      <c r="H77" t="n">
-        <v>23037658.56870266</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23963832.89300188</v>
-      </c>
-      <c r="J77" t="n">
-        <v>24888075.2295406</v>
-      </c>
-      <c r="K77" t="n">
-        <v>25812894.89291964</v>
-      </c>
-      <c r="L77" t="n">
-        <v>26738397.00941438</v>
-      </c>
-      <c r="M77" t="n">
-        <v>27664571.33371361</v>
+        <v>3917752.226011211</v>
       </c>
     </row>
   </sheetData>
